--- a/P1/DatosAstros.xlsx
+++ b/P1/DatosAstros.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Reales" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos Programa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>Sol</t>
   </si>
@@ -89,9 +90,6 @@
     <t>Tritón</t>
   </si>
   <si>
-    <t>Planeta</t>
-  </si>
-  <si>
     <t>Diámetro (km)</t>
   </si>
   <si>
@@ -108,6 +106,27 @@
   </si>
   <si>
     <t>Distancia (MKm)</t>
+  </si>
+  <si>
+    <t>diametro</t>
+  </si>
+  <si>
+    <t>Astro</t>
+  </si>
+  <si>
+    <t>velTraslacion</t>
+  </si>
+  <si>
+    <t>velRotacion</t>
+  </si>
+  <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>satelite de</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -143,15 +162,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
@@ -185,11 +220,30 @@
   </sortState>
   <tableColumns count="6">
     <tableColumn id="6" name="ID" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="Planeta" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Diámetro (km)" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Traslación (d)" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Rotación (d)" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Distancia (MKm)" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Astro" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Diámetro (km)" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Traslación (d)" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Rotación (d)" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Distancia (MKm)" dataDxfId="5" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:G23" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:G23"/>
+  <sortState ref="A2:F23">
+    <sortCondition ref="A1:A23"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="6" name="ID" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Astro" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="diametro" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="velTraslacion" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="velRotacion" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="posX" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="satelite de" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -460,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,22 +527,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>6378.1</v>
+        <v>12742</v>
       </c>
       <c r="D5" s="1">
         <v>365.25599999999997</v>
@@ -676,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>3643.2</v>
@@ -938,4 +992,551 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D3" s="1">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1">
+        <v>58.7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>224.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-243.0187</v>
+      </c>
+      <c r="F4" s="1">
+        <v>108.2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>365.25599999999997</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>149.5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27.32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>27.32</v>
+      </c>
+      <c r="F6" s="1">
+        <v>149.88440299999999</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="D7" s="1">
+        <v>686.98</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24.62</v>
+      </c>
+      <c r="F7" s="1">
+        <v>227.9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>227.90937700000001</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="F9" s="1">
+        <v>227.92346000000001</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4328.8999999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="F10" s="1">
+        <v>778.5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="F11" s="1">
+        <v>778.92160000000001</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.5518000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.5518000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>779.17089999999996</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.0153999999999996</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.0153999999999996</v>
+      </c>
+      <c r="F13" s="1">
+        <v>779.57</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16.689</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16.689</v>
+      </c>
+      <c r="F14" s="1">
+        <v>780.3827</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10752.9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.42625000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1433</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>30663.65</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.745</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2877</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.413</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.413</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2877.1298999999999</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2877.1909000000001</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2877.2660000000001</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8.7059999999999995</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.7059999999999995</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2877.4360000000001</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13.46</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2877.5835000000002</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>60152</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.67125000000000001</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4503</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-5.8769999999999998</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-5.8769999999999998</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4503.3547589999998</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/P1/DatosAstros.xlsx
+++ b/P1/DatosAstros.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos Reales" sheetId="1" r:id="rId1"/>
-    <sheet name="Datos Programa" sheetId="2" r:id="rId2"/>
+    <sheet name="DatosReales" sheetId="1" r:id="rId1"/>
+    <sheet name="DatosPrograma" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -105,9 +105,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Distancia (MKm)</t>
-  </si>
-  <si>
     <t>diametro</t>
   </si>
   <si>
@@ -120,13 +117,16 @@
     <t>velRotacion</t>
   </si>
   <si>
-    <t>posX</t>
-  </si>
-  <si>
     <t>satelite de</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Distancia (mKm)</t>
+  </si>
+  <si>
+    <t>distancia</t>
   </si>
 </sst>
 </file>
@@ -221,10 +221,10 @@
   <tableColumns count="6">
     <tableColumn id="6" name="ID" dataCellStyle="Normal"/>
     <tableColumn id="1" name="Astro" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Diámetro (km)" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Traslación (d)" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Rotación (d)" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Distancia (MKm)" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Diámetro (km)" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Traslación (d)" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Rotación (d)" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Distancia (mKm)" dataDxfId="3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -239,11 +239,15 @@
   <tableColumns count="7">
     <tableColumn id="6" name="ID" dataCellStyle="Normal"/>
     <tableColumn id="1" name="Astro" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="diametro" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="velTraslacion" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="velRotacion" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="posX" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="satelite de" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="diametro" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="velTraslacion" dataDxfId="0" dataCellStyle="Normal">
+      <calculatedColumnFormula>DatosReales!D2/5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="velRotacion" dataDxfId="1" dataCellStyle="Normal">
+      <calculatedColumnFormula>DatosReales!E2/5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="distancia" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="satelite de" dataDxfId="7" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -514,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +534,7 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -542,7 +546,7 @@
         <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,7 +586,7 @@
         <v>58.7</v>
       </c>
       <c r="F3" s="1">
-        <v>0.56999999999999995</v>
+        <v>57910</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,7 +606,7 @@
         <v>-243.0187</v>
       </c>
       <c r="F4" s="1">
-        <v>108.2</v>
+        <v>108200</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -622,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>149.5</v>
+        <v>149500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -642,7 +646,7 @@
         <v>27.32</v>
       </c>
       <c r="F6" s="1">
-        <v>149.88440299999999</v>
+        <v>384.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,7 +666,7 @@
         <v>24.62</v>
       </c>
       <c r="F7" s="1">
-        <v>227.9</v>
+        <v>227900</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -682,7 +686,7 @@
         <v>0.31</v>
       </c>
       <c r="F8" s="1">
-        <v>227.90937700000001</v>
+        <v>9.3772000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -702,7 +706,7 @@
         <v>1.26</v>
       </c>
       <c r="F9" s="1">
-        <v>227.92346000000001</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,7 +726,7 @@
         <v>0.41</v>
       </c>
       <c r="F10" s="1">
-        <v>778.5</v>
+        <v>778500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -742,7 +746,7 @@
         <v>1.75</v>
       </c>
       <c r="F11" s="1">
-        <v>778.92160000000001</v>
+        <v>421.8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -762,7 +766,7 @@
         <v>3.5518000000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>779.17089999999996</v>
+        <v>671.1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,7 +786,7 @@
         <v>7.0153999999999996</v>
       </c>
       <c r="F13" s="1">
-        <v>779.57</v>
+        <v>1070.4000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -802,7 +806,7 @@
         <v>16.689</v>
       </c>
       <c r="F14" s="1">
-        <v>780.3827</v>
+        <v>1822.7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -822,7 +826,7 @@
         <v>0.42625000000000002</v>
       </c>
       <c r="F15" s="1">
-        <v>1433</v>
+        <v>1433000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,7 +846,7 @@
         <v>0.745</v>
       </c>
       <c r="F16" s="1">
-        <v>2877</v>
+        <v>2877000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,7 +866,7 @@
         <v>1.413</v>
       </c>
       <c r="F17" s="1">
-        <v>2877.1298999999999</v>
+        <v>129.87200000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,7 +886,7 @@
         <v>2.52</v>
       </c>
       <c r="F18" s="1">
-        <v>2877.1909000000001</v>
+        <v>191.02</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -902,7 +906,7 @@
         <v>4.1440000000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>2877.2660000000001</v>
+        <v>266.3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -922,7 +926,7 @@
         <v>8.7059999999999995</v>
       </c>
       <c r="F20" s="1">
-        <v>2877.4360000000001</v>
+        <v>463.3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -942,7 +946,7 @@
         <v>13.46</v>
       </c>
       <c r="F21" s="1">
-        <v>2877.5835000000002</v>
+        <v>583.51900000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -962,7 +966,7 @@
         <v>0.67125000000000001</v>
       </c>
       <c r="F22" s="1">
-        <v>4503</v>
+        <v>4503000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -998,33 +1002,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1038,16 +1045,18 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
+        <f>DatosReales!D2/5</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>27</v>
+        <f>DatosReales!E2/5</f>
+        <v>5.4</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1061,13 +1070,15 @@
         <v>0.49</v>
       </c>
       <c r="D3" s="1">
-        <v>88</v>
+        <f>DatosReales!D3/5</f>
+        <v>17.600000000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>58.7</v>
+        <f>DatosReales!E3/5</f>
+        <v>11.74</v>
       </c>
       <c r="F3" s="1">
-        <v>0.56999999999999995</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>0</v>
@@ -1084,13 +1095,15 @@
         <v>1.21</v>
       </c>
       <c r="D4" s="1">
-        <v>224.7</v>
+        <f>DatosReales!D4/5</f>
+        <v>44.94</v>
       </c>
       <c r="E4" s="1">
-        <v>-243.0187</v>
+        <f>DatosReales!E4/5</f>
+        <v>-48.603740000000002</v>
       </c>
       <c r="F4" s="1">
-        <v>108.2</v>
+        <v>9.5</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
@@ -1107,13 +1120,15 @@
         <v>1.27</v>
       </c>
       <c r="D5" s="1">
-        <v>365.25599999999997</v>
+        <f>DatosReales!D5/5</f>
+        <v>73.051199999999994</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <f>DatosReales!E5/5</f>
+        <v>0.2</v>
       </c>
       <c r="F5" s="1">
-        <v>149.5</v>
+        <v>12.5</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>0</v>
@@ -1130,13 +1145,15 @@
         <v>0.34</v>
       </c>
       <c r="D6" s="1">
-        <v>27.32</v>
+        <f>DatosReales!D6/5</f>
+        <v>5.4640000000000004</v>
       </c>
       <c r="E6" s="1">
-        <v>27.32</v>
+        <f>DatosReales!E6/5</f>
+        <v>5.4640000000000004</v>
       </c>
       <c r="F6" s="1">
-        <v>149.88440299999999</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1170,15 @@
         <v>0.68</v>
       </c>
       <c r="D7" s="1">
-        <v>686.98</v>
+        <f>DatosReales!D7/5</f>
+        <v>137.39600000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>24.62</v>
+        <f>DatosReales!E7/5</f>
+        <v>4.9240000000000004</v>
       </c>
       <c r="F7" s="1">
-        <v>227.9</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>0</v>
@@ -1176,13 +1195,15 @@
         <v>0.02</v>
       </c>
       <c r="D8" s="1">
-        <v>0.31</v>
+        <f>DatosReales!D8/5</f>
+        <v>6.2E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>0.31</v>
+        <f>DatosReales!E8/5</f>
+        <v>6.2E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>227.90937700000001</v>
+        <v>0.45</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>5</v>
@@ -1199,13 +1220,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D9" s="1">
-        <v>1.26</v>
+        <f>DatosReales!D9/5</f>
+        <v>0.252</v>
       </c>
       <c r="E9" s="1">
-        <v>1.26</v>
+        <f>DatosReales!E9/5</f>
+        <v>0.252</v>
       </c>
       <c r="F9" s="1">
-        <v>227.92346000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
@@ -1222,13 +1245,15 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>4328.8999999999996</v>
+        <f>DatosReales!D10/5</f>
+        <v>865.78</v>
       </c>
       <c r="E10" s="1">
-        <v>0.41</v>
+        <f>DatosReales!E10/5</f>
+        <v>8.199999999999999E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>778.5</v>
+        <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>0</v>
@@ -1245,13 +1270,15 @@
         <v>0.36</v>
       </c>
       <c r="D11" s="1">
-        <v>1.75</v>
+        <f>DatosReales!D11/5</f>
+        <v>0.35</v>
       </c>
       <c r="E11" s="1">
-        <v>1.75</v>
+        <f>DatosReales!E11/5</f>
+        <v>0.35</v>
       </c>
       <c r="F11" s="1">
-        <v>778.92160000000001</v>
+        <v>2.8</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
@@ -1268,13 +1295,15 @@
         <v>0.31</v>
       </c>
       <c r="D12" s="1">
-        <v>3.5518000000000001</v>
+        <f>DatosReales!D12/5</f>
+        <v>0.71035999999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>3.5518000000000001</v>
+        <f>DatosReales!E12/5</f>
+        <v>0.71035999999999999</v>
       </c>
       <c r="F12" s="1">
-        <v>779.17089999999996</v>
+        <v>3.3</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1291,13 +1320,15 @@
         <v>0.53</v>
       </c>
       <c r="D13" s="1">
-        <v>7.0153999999999996</v>
+        <f>DatosReales!D13/5</f>
+        <v>1.4030799999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>7.0153999999999996</v>
+        <f>DatosReales!E13/5</f>
+        <v>1.4030799999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>779.57</v>
+        <v>3.9</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
@@ -1314,13 +1345,15 @@
         <v>0.48</v>
       </c>
       <c r="D14" s="1">
-        <v>16.689</v>
+        <f>DatosReales!D14/5</f>
+        <v>3.3378000000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>16.689</v>
+        <f>DatosReales!E14/5</f>
+        <v>3.3378000000000001</v>
       </c>
       <c r="F14" s="1">
-        <v>780.3827</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1337,13 +1370,15 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>10752.9</v>
+        <f>DatosReales!D15/5</f>
+        <v>2150.58</v>
       </c>
       <c r="E15" s="1">
-        <v>0.42625000000000002</v>
+        <f>DatosReales!E15/5</f>
+        <v>8.5250000000000006E-2</v>
       </c>
       <c r="F15" s="1">
-        <v>1433</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>0</v>
@@ -1360,13 +1395,15 @@
         <v>2.6</v>
       </c>
       <c r="D16" s="1">
-        <v>30663.65</v>
+        <f>DatosReales!D16/5</f>
+        <v>6132.7300000000005</v>
       </c>
       <c r="E16" s="1">
-        <v>0.745</v>
+        <f>DatosReales!E16/5</f>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F16" s="1">
-        <v>2877</v>
+        <v>45</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>0</v>
@@ -1383,13 +1420,15 @@
         <v>0.04</v>
       </c>
       <c r="D17" s="1">
-        <v>1.413</v>
+        <f>DatosReales!D17/5</f>
+        <v>0.28260000000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>1.413</v>
+        <f>DatosReales!E17/5</f>
+        <v>0.28260000000000002</v>
       </c>
       <c r="F17" s="1">
-        <v>2877.1298999999999</v>
+        <v>1.4</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>13</v>
@@ -1403,16 +1442,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D18" s="1">
-        <v>2.52</v>
+        <f>DatosReales!D18/5</f>
+        <v>0.504</v>
       </c>
       <c r="E18" s="1">
-        <v>2.52</v>
+        <f>DatosReales!E18/5</f>
+        <v>0.504</v>
       </c>
       <c r="F18" s="1">
-        <v>2877.1909000000001</v>
+        <v>1.55</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>13</v>
@@ -1429,13 +1470,15 @@
         <v>0.12</v>
       </c>
       <c r="D19" s="1">
-        <v>4.1440000000000001</v>
+        <f>DatosReales!D19/5</f>
+        <v>0.82879999999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>4.1440000000000001</v>
+        <f>DatosReales!E19/5</f>
+        <v>0.82879999999999998</v>
       </c>
       <c r="F19" s="1">
-        <v>2877.2660000000001</v>
+        <v>1.9</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>13</v>
@@ -1452,13 +1495,15 @@
         <v>0.16</v>
       </c>
       <c r="D20" s="1">
-        <v>8.7059999999999995</v>
+        <f>DatosReales!D20/5</f>
+        <v>1.7411999999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>8.7059999999999995</v>
+        <f>DatosReales!E20/5</f>
+        <v>1.7411999999999999</v>
       </c>
       <c r="F20" s="1">
-        <v>2877.4360000000001</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>13</v>
@@ -1475,13 +1520,15 @@
         <v>0.15</v>
       </c>
       <c r="D21" s="1">
-        <v>13.46</v>
+        <f>DatosReales!D21/5</f>
+        <v>2.6920000000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>13.46</v>
+        <f>DatosReales!E21/5</f>
+        <v>2.6920000000000002</v>
       </c>
       <c r="F21" s="1">
-        <v>2877.5835000000002</v>
+        <v>2.76</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>13</v>
@@ -1498,13 +1545,15 @@
         <v>2.5</v>
       </c>
       <c r="D22" s="1">
-        <v>60152</v>
+        <f>DatosReales!D22/5</f>
+        <v>12030.4</v>
       </c>
       <c r="E22" s="1">
-        <v>0.67125000000000001</v>
+        <f>DatosReales!E22/5</f>
+        <v>0.13425000000000001</v>
       </c>
       <c r="F22" s="1">
-        <v>4503</v>
+        <v>51</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>0</v>
@@ -1521,13 +1570,15 @@
         <v>0.27</v>
       </c>
       <c r="D23" s="1">
-        <v>-5.8769999999999998</v>
+        <f>DatosReales!D23/5</f>
+        <v>-1.1754</v>
       </c>
       <c r="E23" s="1">
-        <v>-5.8769999999999998</v>
+        <f>DatosReales!E23/5</f>
+        <v>-1.1754</v>
       </c>
       <c r="F23" s="1">
-        <v>4503.3547589999998</v>
+        <v>1.6</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>19</v>

--- a/P1/DatosAstros.xlsx
+++ b/P1/DatosAstros.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fblupi\Documents\GitHub\grado_informatica-SG\P1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FranciscoJavier\Documents\GitHub\grado_informatica-SG\P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DatosReales" sheetId="1" r:id="rId1"/>
@@ -221,10 +221,10 @@
   <tableColumns count="6">
     <tableColumn id="6" name="ID" dataCellStyle="Normal"/>
     <tableColumn id="1" name="Astro" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Diámetro (km)" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Traslación (d)" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Rotación (d)" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Distancia (mKm)" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Diámetro (km)" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Traslación (d)" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="Rotación (d)" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="Distancia (mKm)" dataDxfId="5" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -239,15 +239,15 @@
   <tableColumns count="7">
     <tableColumn id="6" name="ID" dataCellStyle="Normal"/>
     <tableColumn id="1" name="Astro" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="diametro" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="velTraslacion" dataDxfId="0" dataCellStyle="Normal">
-      <calculatedColumnFormula>DatosReales!D2/5</calculatedColumnFormula>
+    <tableColumn id="2" name="diametro" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="velTraslacion" dataDxfId="1" dataCellStyle="Normal">
+      <calculatedColumnFormula>DatosReales!D2/5*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="velRotacion" dataDxfId="1" dataCellStyle="Normal">
-      <calculatedColumnFormula>DatosReales!E2/5</calculatedColumnFormula>
+    <tableColumn id="4" name="velRotacion" dataDxfId="0" dataCellStyle="Normal">
+      <calculatedColumnFormula>DatosReales!E2/5*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="distancia" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="satelite de" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="distancia" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="satelite de" dataDxfId="2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,13 +1002,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,12 +1046,12 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <f>DatosReales!D2/5</f>
+        <f>DatosReales!D2/5*1000</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f>DatosReales!E2/5</f>
-        <v>5.4</v>
+        <f>DatosReales!E2/5*1000</f>
+        <v>5400</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1070,12 +1071,12 @@
         <v>0.49</v>
       </c>
       <c r="D3" s="1">
-        <f>DatosReales!D3/5</f>
-        <v>17.600000000000001</v>
+        <f>DatosReales!D3/5*1000</f>
+        <v>17600</v>
       </c>
       <c r="E3" s="1">
-        <f>DatosReales!E3/5</f>
-        <v>11.74</v>
+        <f>DatosReales!E3/5*1000</f>
+        <v>11740</v>
       </c>
       <c r="F3" s="1">
         <v>7</v>
@@ -1095,12 +1096,12 @@
         <v>1.21</v>
       </c>
       <c r="D4" s="1">
-        <f>DatosReales!D4/5</f>
-        <v>44.94</v>
+        <f>DatosReales!D4/5*1000</f>
+        <v>44940</v>
       </c>
       <c r="E4" s="1">
-        <f>DatosReales!E4/5</f>
-        <v>-48.603740000000002</v>
+        <f>DatosReales!E4/5*1000</f>
+        <v>-48603.740000000005</v>
       </c>
       <c r="F4" s="1">
         <v>9.5</v>
@@ -1120,12 +1121,12 @@
         <v>1.27</v>
       </c>
       <c r="D5" s="1">
-        <f>DatosReales!D5/5</f>
-        <v>73.051199999999994</v>
+        <f>DatosReales!D5/5*1000</f>
+        <v>73051.199999999997</v>
       </c>
       <c r="E5" s="1">
-        <f>DatosReales!E5/5</f>
-        <v>0.2</v>
+        <f>DatosReales!E5/5*1000</f>
+        <v>200</v>
       </c>
       <c r="F5" s="1">
         <v>12.5</v>
@@ -1145,12 +1146,12 @@
         <v>0.34</v>
       </c>
       <c r="D6" s="1">
-        <f>DatosReales!D6/5</f>
-        <v>5.4640000000000004</v>
+        <f>DatosReales!D6/5*1000</f>
+        <v>5464</v>
       </c>
       <c r="E6" s="1">
-        <f>DatosReales!E6/5</f>
-        <v>5.4640000000000004</v>
+        <f>DatosReales!E6/5*1000</f>
+        <v>5464</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1170,12 +1171,12 @@
         <v>0.68</v>
       </c>
       <c r="D7" s="1">
-        <f>DatosReales!D7/5</f>
-        <v>137.39600000000002</v>
+        <f>DatosReales!D7/5*1000</f>
+        <v>137396.00000000003</v>
       </c>
       <c r="E7" s="1">
-        <f>DatosReales!E7/5</f>
-        <v>4.9240000000000004</v>
+        <f>DatosReales!E7/5*1000</f>
+        <v>4924</v>
       </c>
       <c r="F7" s="1">
         <v>15</v>
@@ -1195,12 +1196,12 @@
         <v>0.02</v>
       </c>
       <c r="D8" s="1">
-        <f>DatosReales!D8/5</f>
-        <v>6.2E-2</v>
+        <f>DatosReales!D8/5*1000</f>
+        <v>62</v>
       </c>
       <c r="E8" s="1">
-        <f>DatosReales!E8/5</f>
-        <v>6.2E-2</v>
+        <f>DatosReales!E8/5*1000</f>
+        <v>62</v>
       </c>
       <c r="F8" s="1">
         <v>0.45</v>
@@ -1220,12 +1221,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D9" s="1">
-        <f>DatosReales!D9/5</f>
-        <v>0.252</v>
+        <f>DatosReales!D9/5*1000</f>
+        <v>252</v>
       </c>
       <c r="E9" s="1">
-        <f>DatosReales!E9/5</f>
-        <v>0.252</v>
+        <f>DatosReales!E9/5*1000</f>
+        <v>252</v>
       </c>
       <c r="F9" s="1">
         <v>0.56999999999999995</v>
@@ -1245,12 +1246,12 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <f>DatosReales!D10/5</f>
-        <v>865.78</v>
+        <f>DatosReales!D10/5*1000</f>
+        <v>865780</v>
       </c>
       <c r="E10" s="1">
-        <f>DatosReales!E10/5</f>
-        <v>8.199999999999999E-2</v>
+        <f>DatosReales!E10/5*1000</f>
+        <v>81.999999999999986</v>
       </c>
       <c r="F10" s="1">
         <v>23</v>
@@ -1270,12 +1271,12 @@
         <v>0.36</v>
       </c>
       <c r="D11" s="1">
-        <f>DatosReales!D11/5</f>
-        <v>0.35</v>
+        <f>DatosReales!D11/5*1000</f>
+        <v>350</v>
       </c>
       <c r="E11" s="1">
-        <f>DatosReales!E11/5</f>
-        <v>0.35</v>
+        <f>DatosReales!E11/5*1000</f>
+        <v>350</v>
       </c>
       <c r="F11" s="1">
         <v>2.8</v>
@@ -1295,12 +1296,12 @@
         <v>0.31</v>
       </c>
       <c r="D12" s="1">
-        <f>DatosReales!D12/5</f>
-        <v>0.71035999999999999</v>
+        <f>DatosReales!D12/5*1000</f>
+        <v>710.36</v>
       </c>
       <c r="E12" s="1">
-        <f>DatosReales!E12/5</f>
-        <v>0.71035999999999999</v>
+        <f>DatosReales!E12/5*1000</f>
+        <v>710.36</v>
       </c>
       <c r="F12" s="1">
         <v>3.3</v>
@@ -1320,12 +1321,12 @@
         <v>0.53</v>
       </c>
       <c r="D13" s="1">
-        <f>DatosReales!D13/5</f>
-        <v>1.4030799999999999</v>
+        <f>DatosReales!D13/5*1000</f>
+        <v>1403.08</v>
       </c>
       <c r="E13" s="1">
-        <f>DatosReales!E13/5</f>
-        <v>1.4030799999999999</v>
+        <f>DatosReales!E13/5*1000</f>
+        <v>1403.08</v>
       </c>
       <c r="F13" s="1">
         <v>3.9</v>
@@ -1345,12 +1346,12 @@
         <v>0.48</v>
       </c>
       <c r="D14" s="1">
-        <f>DatosReales!D14/5</f>
-        <v>3.3378000000000001</v>
+        <f>DatosReales!D14/5*1000</f>
+        <v>3337.8</v>
       </c>
       <c r="E14" s="1">
-        <f>DatosReales!E14/5</f>
-        <v>3.3378000000000001</v>
+        <f>DatosReales!E14/5*1000</f>
+        <v>3337.8</v>
       </c>
       <c r="F14" s="1">
         <v>4.5999999999999996</v>
@@ -1370,12 +1371,12 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <f>DatosReales!D15/5</f>
-        <v>2150.58</v>
+        <f>DatosReales!D15/5*1000</f>
+        <v>2150580</v>
       </c>
       <c r="E15" s="1">
-        <f>DatosReales!E15/5</f>
-        <v>8.5250000000000006E-2</v>
+        <f>DatosReales!E15/5*1000</f>
+        <v>85.25</v>
       </c>
       <c r="F15" s="1">
         <v>35</v>
@@ -1395,12 +1396,12 @@
         <v>2.6</v>
       </c>
       <c r="D16" s="1">
-        <f>DatosReales!D16/5</f>
-        <v>6132.7300000000005</v>
+        <f>DatosReales!D16/5*1000</f>
+        <v>6132730.0000000009</v>
       </c>
       <c r="E16" s="1">
-        <f>DatosReales!E16/5</f>
-        <v>0.14899999999999999</v>
+        <f>DatosReales!E16/5*1000</f>
+        <v>149</v>
       </c>
       <c r="F16" s="1">
         <v>45</v>
@@ -1420,12 +1421,12 @@
         <v>0.04</v>
       </c>
       <c r="D17" s="1">
-        <f>DatosReales!D17/5</f>
-        <v>0.28260000000000002</v>
+        <f>DatosReales!D17/5*1000</f>
+        <v>282.60000000000002</v>
       </c>
       <c r="E17" s="1">
-        <f>DatosReales!E17/5</f>
-        <v>0.28260000000000002</v>
+        <f>DatosReales!E17/5*1000</f>
+        <v>282.60000000000002</v>
       </c>
       <c r="F17" s="1">
         <v>1.4</v>
@@ -1445,12 +1446,12 @@
         <v>0.1</v>
       </c>
       <c r="D18" s="1">
-        <f>DatosReales!D18/5</f>
-        <v>0.504</v>
+        <f>DatosReales!D18/5*1000</f>
+        <v>504</v>
       </c>
       <c r="E18" s="1">
-        <f>DatosReales!E18/5</f>
-        <v>0.504</v>
+        <f>DatosReales!E18/5*1000</f>
+        <v>504</v>
       </c>
       <c r="F18" s="1">
         <v>1.55</v>
@@ -1470,12 +1471,12 @@
         <v>0.12</v>
       </c>
       <c r="D19" s="1">
-        <f>DatosReales!D19/5</f>
-        <v>0.82879999999999998</v>
+        <f>DatosReales!D19/5*1000</f>
+        <v>828.8</v>
       </c>
       <c r="E19" s="1">
-        <f>DatosReales!E19/5</f>
-        <v>0.82879999999999998</v>
+        <f>DatosReales!E19/5*1000</f>
+        <v>828.8</v>
       </c>
       <c r="F19" s="1">
         <v>1.9</v>
@@ -1495,12 +1496,12 @@
         <v>0.16</v>
       </c>
       <c r="D20" s="1">
-        <f>DatosReales!D20/5</f>
-        <v>1.7411999999999999</v>
+        <f>DatosReales!D20/5*1000</f>
+        <v>1741.1999999999998</v>
       </c>
       <c r="E20" s="1">
-        <f>DatosReales!E20/5</f>
-        <v>1.7411999999999999</v>
+        <f>DatosReales!E20/5*1000</f>
+        <v>1741.1999999999998</v>
       </c>
       <c r="F20" s="1">
         <v>2.2999999999999998</v>
@@ -1520,12 +1521,12 @@
         <v>0.15</v>
       </c>
       <c r="D21" s="1">
-        <f>DatosReales!D21/5</f>
-        <v>2.6920000000000002</v>
+        <f>DatosReales!D21/5*1000</f>
+        <v>2692</v>
       </c>
       <c r="E21" s="1">
-        <f>DatosReales!E21/5</f>
-        <v>2.6920000000000002</v>
+        <f>DatosReales!E21/5*1000</f>
+        <v>2692</v>
       </c>
       <c r="F21" s="1">
         <v>2.76</v>
@@ -1545,12 +1546,12 @@
         <v>2.5</v>
       </c>
       <c r="D22" s="1">
-        <f>DatosReales!D22/5</f>
-        <v>12030.4</v>
+        <f>DatosReales!D22/5*1000</f>
+        <v>12030400</v>
       </c>
       <c r="E22" s="1">
-        <f>DatosReales!E22/5</f>
-        <v>0.13425000000000001</v>
+        <f>DatosReales!E22/5*1000</f>
+        <v>134.25</v>
       </c>
       <c r="F22" s="1">
         <v>51</v>
@@ -1570,12 +1571,12 @@
         <v>0.27</v>
       </c>
       <c r="D23" s="1">
-        <f>DatosReales!D23/5</f>
-        <v>-1.1754</v>
+        <f>DatosReales!D23/5*1000</f>
+        <v>-1175.4000000000001</v>
       </c>
       <c r="E23" s="1">
-        <f>DatosReales!E23/5</f>
-        <v>-1.1754</v>
+        <f>DatosReales!E23/5*1000</f>
+        <v>-1175.4000000000001</v>
       </c>
       <c r="F23" s="1">
         <v>1.6</v>
